--- a/Statystyki_2018/Template/aoppe.xlsx
+++ b/Statystyki_2018/Template/aoppe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE11C537-9A97-4BE2-B144-487419D18CA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909CD3C-1CA7-40CC-9384-B3BC24733C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="styczeń 2018" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'styczeń 2018'!$A$1:$AJ$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'styczeń 2018'!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,9 +80,6 @@
       </rPr>
       <t>(wszystkie kategorie spraw)</t>
     </r>
-  </si>
-  <si>
-    <t>pozostało spraw starych</t>
   </si>
   <si>
     <t>skargi na przewlekłość</t>
@@ -185,6 +182,11 @@
   <si>
     <t>na posiedzeniu</t>
   </si>
+  <si>
+    <t>stan spraw
+zawieszonych
+(wszystkie kategorie spraw, zgodnie z MS-S5o)</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +287,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +306,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -416,12 +424,45 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -431,33 +472,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -467,15 +481,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +488,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,61 +813,61 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AN2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="1" customWidth="1"/>
-    <col min="26" max="29" width="8.42578125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="7.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" style="1" customWidth="1"/>
+    <col min="26" max="29" width="8.44140625" style="1" customWidth="1"/>
+    <col min="30" max="32" width="7.44140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" style="1" customWidth="1"/>
-    <col min="35" max="36" width="6.140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="86.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" style="1" customWidth="1"/>
+    <col min="35" max="36" width="6.109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="86.6640625" style="1" customWidth="1"/>
     <col min="38" max="39" width="29" style="1" customWidth="1"/>
-    <col min="40" max="257" width="9.140625" style="1" customWidth="1"/>
-    <col min="258" max="1025" width="9.140625" customWidth="1"/>
+    <col min="40" max="257" width="9.109375" style="1" customWidth="1"/>
+    <col min="258" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+    <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -882,290 +890,281 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:40" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="5" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="22" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="5" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="5" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="11" t="s">
+      <c r="AL2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="12"/>
+      <c r="AM2" s="16"/>
       <c r="AN2" s="3"/>
     </row>
-    <row r="3" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AH3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
+    <row r="4" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
       <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:40" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="11"/>
+    <row r="5" spans="1:40" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="27"/>
       <c r="AL5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AN5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
     <mergeCell ref="AK2:AK5"/>
     <mergeCell ref="AL2:AM4"/>
     <mergeCell ref="D3:D5"/>
@@ -1182,19 +1181,28 @@
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="R3:R5"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="Z3:Z5"/>
     <mergeCell ref="AA3:AA5"/>
     <mergeCell ref="AB3:AB5"/>
     <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
